--- a/output/frs.xlsx
+++ b/output/frs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -564,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +582,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,10 +691,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -784,15 +802,24 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>981413</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -891,15 +918,24 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>119900</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -998,15 +1034,24 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>2913790</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1105,15 +1150,24 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>250379</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1212,15 +1266,24 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>1262168</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1319,15 +1382,24 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>66502</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1426,15 +1498,24 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>154071</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1533,15 +1614,24 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>2470099</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1640,15 +1730,24 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>137442</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1747,15 +1846,24 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>191847</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1854,15 +1962,24 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>333245</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1961,15 +2078,24 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>435730</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2068,15 +2194,24 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>4572.22</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2175,15 +2310,24 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>313015.605</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2282,15 +2426,24 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>143765.925</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2389,15 +2542,24 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>16043.925</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2496,15 +2658,24 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>121995.495</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2603,15 +2774,24 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>4572.22</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2710,15 +2890,24 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>313015.605</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2817,15 +3006,24 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>143765.925</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2924,15 +3122,24 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>16043.925</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3031,15 +3238,24 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>121995.495</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3138,15 +3354,24 @@
         <v>0.008682218173285511</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>63224.635</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3245,15 +3470,24 @@
         <v>0.008682218173285511</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>239381.7</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3352,15 +3586,24 @@
         <v>0.008682218173285511</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>6573.5</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3459,15 +3702,24 @@
         <v>0.008682218173285511</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>252800</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3566,15 +3818,24 @@
         <v>0.7027840691785535</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>63224.635</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3673,15 +3934,24 @@
         <v>0.7027840691785535</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>239381.7</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3780,15 +4050,24 @@
         <v>0.7027840691785535</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>6573.5</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3887,15 +4166,24 @@
         <v>0.7027840691785535</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>252800</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3994,15 +4282,24 @@
         <v>0.3714146838692628</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>59964</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4101,15 +4398,24 @@
         <v>0.3714146838692628</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>179477</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4208,15 +4514,24 @@
         <v>0.3714146838692628</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>353380</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4315,9 +4630,18 @@
         <v>0.3714146838692628</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>586666</v>
       </c>
     </row>

--- a/output/frs.xlsx
+++ b/output/frs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -573,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +588,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,10 +706,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -802,24 +814,30 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0.7249090973385884</v>
+      </c>
+      <c r="AJ2">
         <v>2008</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>981413</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -918,24 +936,30 @@
         <v>0</v>
       </c>
       <c r="AI3">
+        <v>0.7249090973385884</v>
+      </c>
+      <c r="AJ3">
         <v>2008</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>119900</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1034,24 +1058,30 @@
         <v>0</v>
       </c>
       <c r="AI4">
+        <v>0.9141096559506652</v>
+      </c>
+      <c r="AJ4">
         <v>2008</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>2913790</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1150,24 +1180,30 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0.9141096559506652</v>
+      </c>
+      <c r="AJ5">
         <v>2008</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>250379</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1266,24 +1302,30 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0.9141096559506652</v>
+      </c>
+      <c r="AJ6">
         <v>2008</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>1262168</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1382,24 +1424,30 @@
         <v>0</v>
       </c>
       <c r="AI7">
+        <v>0.9141096559506652</v>
+      </c>
+      <c r="AJ7">
         <v>2008</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>66502</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1498,24 +1546,30 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>0.9141096559506652</v>
+      </c>
+      <c r="AJ8">
         <v>2008</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>154071</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1614,24 +1668,30 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>2008</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>2470099</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1730,24 +1790,30 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>2008</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>137442</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1846,24 +1912,30 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>2008</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>191847</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1962,24 +2034,30 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>2008</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>333245</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2078,24 +2156,30 @@
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>2008</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>435730</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2194,24 +2278,30 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI14">
+        <v>0.9565304969066343</v>
+      </c>
+      <c r="AJ14">
         <v>2008</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>4572.22</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2310,24 +2400,30 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI15">
+        <v>0.9565304969066343</v>
+      </c>
+      <c r="AJ15">
         <v>2008</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>313015.605</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2426,24 +2522,30 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI16">
+        <v>0.9565304969066343</v>
+      </c>
+      <c r="AJ16">
         <v>2008</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>143765.925</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2542,24 +2644,30 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI17">
+        <v>0.9565304969066343</v>
+      </c>
+      <c r="AJ17">
         <v>2008</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>16043.925</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2658,24 +2766,30 @@
         <v>0.03071729822880769</v>
       </c>
       <c r="AI18">
+        <v>0.9565304969066343</v>
+      </c>
+      <c r="AJ18">
         <v>2008</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>121995.495</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2774,24 +2888,30 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI19">
+        <v>0.9480671668656515</v>
+      </c>
+      <c r="AJ19">
         <v>2008</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>4572.22</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2890,24 +3010,30 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI20">
+        <v>0.9480671668656515</v>
+      </c>
+      <c r="AJ20">
         <v>2008</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>313015.605</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3006,24 +3132,30 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI21">
+        <v>0.9480671668656515</v>
+      </c>
+      <c r="AJ21">
         <v>2008</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>143765.925</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3122,24 +3254,30 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI22">
+        <v>0.9480671668656515</v>
+      </c>
+      <c r="AJ22">
         <v>2008</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>16043.925</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3238,24 +3376,30 @@
         <v>0.02511750894646011</v>
       </c>
       <c r="AI23">
+        <v>0.9480671668656515</v>
+      </c>
+      <c r="AJ23">
         <v>2008</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>121995.495</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3354,24 +3498,30 @@
         <v>0.008682218173285511</v>
       </c>
       <c r="AI24">
+        <v>0.9913177818267145</v>
+      </c>
+      <c r="AJ24">
         <v>2008</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>63224.635</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3470,24 +3620,30 @@
         <v>0.008682218173285511</v>
       </c>
       <c r="AI25">
+        <v>0.9913177818267145</v>
+      </c>
+      <c r="AJ25">
         <v>2008</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>239381.7</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3586,24 +3742,30 @@
         <v>0.008682218173285511</v>
       </c>
       <c r="AI26">
+        <v>0.9913177818267145</v>
+      </c>
+      <c r="AJ26">
         <v>2008</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>6573.5</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3702,24 +3864,30 @@
         <v>0.008682218173285511</v>
       </c>
       <c r="AI27">
+        <v>0.9913177818267145</v>
+      </c>
+      <c r="AJ27">
         <v>2008</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>252800</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3818,24 +3986,30 @@
         <v>0.7027840691785535</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>2008</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>63224.635</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3934,24 +4108,30 @@
         <v>0.7027840691785535</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>2008</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>239381.7</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4050,24 +4230,30 @@
         <v>0.7027840691785535</v>
       </c>
       <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>2008</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>6573.5</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4166,24 +4352,30 @@
         <v>0.7027840691785535</v>
       </c>
       <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>2008</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>252800</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4282,24 +4474,30 @@
         <v>0.3714146838692628</v>
       </c>
       <c r="AI32">
+        <v>0.6285853161307372</v>
+      </c>
+      <c r="AJ32">
         <v>2008</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>59964</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4398,24 +4596,30 @@
         <v>0.3714146838692628</v>
       </c>
       <c r="AI33">
+        <v>0.6285853161307372</v>
+      </c>
+      <c r="AJ33">
         <v>2008</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>179477</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4514,24 +4718,30 @@
         <v>0.3714146838692628</v>
       </c>
       <c r="AI34">
+        <v>0.6285853161307372</v>
+      </c>
+      <c r="AJ34">
         <v>2008</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>353380</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4630,18 +4840,24 @@
         <v>0.3714146838692628</v>
       </c>
       <c r="AI35">
+        <v>0.6285853161307372</v>
+      </c>
+      <c r="AJ35">
         <v>2008</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>586666</v>
       </c>
     </row>

--- a/output/frs.xlsx
+++ b/output/frs.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>13860</v>
+        <v>18254.09644617555</v>
       </c>
       <c r="D16">
         <v>700000</v>
@@ -2551,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>14020</v>
+        <v>16764.42871195103</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>13220</v>
+        <v>16146.07242861928</v>
       </c>
       <c r="D25">
         <v>2500000</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D27">
         <v>2500000</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>10840</v>
+        <v>14093.81249338665</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3570</v>
+        <v>2886.897484630703</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>770</v>
+        <v>809.9545825255682</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D35">
         <v>0</v>

--- a/output/frs.xlsx
+++ b/output/frs.xlsx
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4572.22</v>
+        <v>191847</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>313015.605</v>
+        <v>333245</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>143765.925</v>
+        <v>2470099</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16043.925</v>
+        <v>137442</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>121995.495</v>
+        <v>435730</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>63224.635</v>
+        <v>121995.495</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>68</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>14093.81249338665</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>239381.7</v>
+        <v>143765.925</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         <v>69</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>731.9993357350996</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>6573.5</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>252800</v>
+        <v>313015.605</v>
       </c>
       <c r="F31">
         <v>0</v>
